--- a/src/main/resources/excelTemplate/estimate_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>NO</t>
   </si>
@@ -82,27 +82,9 @@
     <t>${data.DRAWING_NUM}</t>
   </si>
   <si>
-    <t>${data.SIZE_W}</t>
-  </si>
-  <si>
     <t>${data.ITEM_QTY}</t>
   </si>
   <si>
-    <t>${data.MATERIAL_UNIT_COST}</t>
-  </si>
-  <si>
-    <t>${data.SURFACE_UNIT_COST}</t>
-  </si>
-  <si>
-    <t>${data.PROCESS_UNIT_COST}</t>
-  </si>
-  <si>
-    <t>${data.ETC_UNIT_COST}</t>
-  </si>
-  <si>
-    <t>${data.FINAL_EST_UNIT_PRICE}</t>
-  </si>
-  <si>
     <t>${data.NOTE}</t>
   </si>
   <si>
@@ -267,13 +249,40 @@
     </r>
   </si>
   <si>
-    <t>일 자 : now()</t>
-  </si>
-  <si>
-    <t>${info.ORDER_COMP_NM}</t>
-  </si>
-  <si>
     <t>${info.FINAL_EST_UNIT_PRICE}</t>
+  </si>
+  <si>
+    <t>${data.DTL_AMOUNT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_FINAL_EST_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_SURFACE_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_PROCESS_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_ETC_AMT}</t>
+  </si>
+  <si>
+    <t>${data.ROWNUM}</t>
+  </si>
+  <si>
+    <t>Tel. ${info.COMP_TEL}</t>
+  </si>
+  <si>
+    <t>Fax. ${info.COMP_FAX}</t>
+  </si>
+  <si>
+    <t>일 자 : ${info.NOW}</t>
+  </si>
+  <si>
+    <t>${data.SIZE_TXT}</t>
   </si>
 </sst>
 </file>
@@ -357,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -368,7 +377,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,7 +389,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -390,7 +398,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,27 +693,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="5.25" customHeight="1"/>
     <row r="2" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="7.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -717,131 +732,133 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="24.75" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -891,46 +908,47 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="K9:M9"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="H5:M5"/>
@@ -942,10 +960,10 @@
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excelTemplate/estimate_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>NO</t>
   </si>
@@ -45,244 +45,262 @@
     <t>소재비</t>
   </si>
   <si>
+    <t>가공비</t>
+  </si>
+  <si>
+    <t>견적단가</t>
+  </si>
+  <si>
+    <t>공급단가</t>
+  </si>
+  <si>
+    <t>금액 계</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>합 계 금 액</t>
+  </si>
+  <si>
+    <t>아래와 같이 견적드립니다.</t>
+  </si>
+  <si>
+    <t>견  적  서</t>
+  </si>
+  <si>
+    <t>${data.MODULE_NM}</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>${data.DRAWING_NUM}</t>
+  </si>
+  <si>
+    <t>${data.ITEM_QTY}</t>
+  </si>
+  <si>
+    <t>${data.NOTE}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수 신 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.COMP_NM}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">참 조 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${info.COMP_NM}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>견적번호 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.EST_NUM}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제 목 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.COMP_TITLE}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">사업자번호 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${info.ORDER_COMP_NUM}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">업태 및 종목 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${info.ORDER_COMP_TYPE}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">주 소 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${info.ORDER_COMP_ADDRESS}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">대표이사 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${info.ORDER_CEO_NM}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">상 호 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${info.ORDER_COMP_NM}</t>
+    </r>
+  </si>
+  <si>
+    <t>${info.FINAL_EST_UNIT_PRICE}</t>
+  </si>
+  <si>
+    <t>${data.DTL_AMOUNT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_FINAL_EST_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_SURFACE_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_PROCESS_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_ETC_AMT}</t>
+  </si>
+  <si>
+    <t>${data.ROWNUM}</t>
+  </si>
+  <si>
+    <t>Tel. ${info.COMP_TEL}</t>
+  </si>
+  <si>
+    <t>Fax. ${info.COMP_FAX}</t>
+  </si>
+  <si>
+    <t>일 자 : ${info.NOW}</t>
+  </si>
+  <si>
+    <t>${data.SIZE_TXT}</t>
+  </si>
+  <si>
+    <t>TM각비</t>
+  </si>
+  <si>
+    <t>연마비</t>
+  </si>
+  <si>
+    <t>열처리</t>
+  </si>
+  <si>
     <t>표면
-처리비</t>
-  </si>
-  <si>
-    <t>가공비</t>
-  </si>
-  <si>
-    <t>견적단가</t>
-  </si>
-  <si>
-    <t>공급단가</t>
-  </si>
-  <si>
-    <t>금액 계</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>합 계 금 액</t>
-  </si>
-  <si>
-    <t>아래와 같이 견적드립니다.</t>
-  </si>
-  <si>
-    <t>견  적  서</t>
-  </si>
-  <si>
-    <t>${data.MODULE_NM}</t>
-  </si>
-  <si>
-    <t>기타</t>
-  </si>
-  <si>
-    <t>${data.DRAWING_NUM}</t>
-  </si>
-  <si>
-    <t>${data.ITEM_QTY}</t>
-  </si>
-  <si>
-    <t>${data.NOTE}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수 신 :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.COMP_NM}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">참 조 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${info.COMP_NM}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>견적번호 :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.EST_NUM}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제 목 :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.COMP_TITLE}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">사업자번호 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${info.ORDER_COMP_NUM}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">업태 및 종목 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${info.ORDER_COMP_TYPE}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">주 소 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${info.ORDER_COMP_ADDRESS}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">대표이사 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${info.ORDER_CEO_NM}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">상 호 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${info.ORDER_COMP_NM}</t>
-    </r>
-  </si>
-  <si>
-    <t>${info.FINAL_EST_UNIT_PRICE}</t>
-  </si>
-  <si>
-    <t>${data.DTL_AMOUNT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_FINAL_EST_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_MATERIAL_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_SURFACE_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_PROCESS_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_ETC_AMT}</t>
-  </si>
-  <si>
-    <t>${data.ROWNUM}</t>
-  </si>
-  <si>
-    <t>Tel. ${info.COMP_TEL}</t>
-  </si>
-  <si>
-    <t>Fax. ${info.COMP_FAX}</t>
-  </si>
-  <si>
-    <t>일 자 : ${info.NOW}</t>
-  </si>
-  <si>
-    <t>${data.SIZE_TXT}</t>
+처리</t>
+  </si>
+  <si>
+    <t>${data.UNIT_TM_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_HEAT_AMT}</t>
+  </si>
+  <si>
+    <t>${data.UNIT_GRIND_AMT}</t>
   </si>
 </sst>
 </file>
@@ -366,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -377,15 +395,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,14 +437,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -698,25 +734,28 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="5.25" customHeight="1"/>
-    <row r="2" spans="1:13" ht="45.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+    <row r="1" spans="1:16" ht="5.25" customHeight="1"/>
+    <row r="2" spans="1:16" ht="45.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1">
+    <row r="3" spans="1:16" ht="7.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -730,143 +769,167 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
+    <row r="9" spans="1:16" ht="25.5" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.75" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="30">
+    <row r="11" spans="1:16" ht="30">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,84 +949,102 @@
         <v>5</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="N11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="I8:P8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A2:P2"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H6:M6"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="I7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excelTemplate/estimate_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>NO</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>${data.UNIT_GRIND_AMT}</t>
+  </si>
+  <si>
+    <t>${data.CALCUL_EST_UNIT_COST}</t>
   </si>
 </sst>
 </file>
@@ -416,14 +419,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,15 +445,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,151 +777,151 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" ht="24.75" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1017,9 +1020,11 @@
         <v>34</v>
       </c>
       <c r="M12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="9"/>
       <c r="O12" s="9" t="s">
         <v>29</v>
       </c>

--- a/src/main/resources/excelTemplate/estimate_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_template.xlsx
@@ -147,30 +147,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제 목 :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${info.COMP_TITLE}</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">사업자번호 : </t>
     </r>
     <r>
@@ -304,6 +280,30 @@
   </si>
   <si>
     <t>${data.CALCUL_EST_UNIT_COST}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제 목 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${info.EMAIL_TITLE}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -419,32 +419,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -739,24 +741,24 @@
   <sheetData>
     <row r="1" spans="1:16" ht="5.25" customHeight="1"/>
     <row r="2" spans="1:16" ht="45.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="3" spans="1:16" ht="7.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -777,151 +779,151 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="I4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="I6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="I7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="I8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16" ht="24.75" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -952,16 +954,16 @@
         <v>5</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>6</v>
@@ -984,7 +986,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>14</v>
@@ -993,40 +995,40 @@
         <v>16</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="K12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="N12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P12" s="8" t="s">
         <v>18</v>
@@ -1034,13 +1036,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I8:P8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A8:G8"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A6:G6"/>
@@ -1050,6 +1045,13 @@
     <mergeCell ref="I5:P5"/>
     <mergeCell ref="I6:P6"/>
     <mergeCell ref="I7:P7"/>
+    <mergeCell ref="I8:P8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/excelTemplate/estimate_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\intellij\workspace\src\main\resources\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\j-mes\workspace\src\main\resources\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -89,7 +89,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -99,7 +99,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -115,7 +115,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -128,7 +128,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -138,7 +138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -153,7 +153,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -168,7 +168,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -183,7 +183,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -198,7 +198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -213,7 +213,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>${data.UNIT_MATERIAL_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_SURFACE_AMT}</t>
   </si>
   <si>
     <t>${data.UNIT_PROCESS_AMT}</t>
@@ -270,15 +267,6 @@
 처리</t>
   </si>
   <si>
-    <t>${data.UNIT_TM_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_HEAT_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_GRIND_AMT}</t>
-  </si>
-  <si>
     <t>${data.CALCUL_EST_UNIT_COST}</t>
   </si>
   <si>
@@ -287,7 +275,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -297,13 +285,29 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> ${info.EMAIL_TITLE}</t>
     </r>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_FINISH_TM_AMT}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_FINISH_GRIND_AMT}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_FINISH_HEAT_AMT}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_SURFACE_AMT}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -311,13 +315,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -326,14 +330,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -341,8 +345,15 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -401,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,6 +430,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -428,23 +451,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,38 +740,38 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="5.25" customHeight="1"/>
-    <row r="2" spans="1:16" ht="45.75" customHeight="1">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" ht="7.5" customHeight="1">
+    <row r="3" spans="1:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -778,152 +789,152 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="24.75" customHeight="1">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -934,7 +945,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="30">
+    <row r="11" spans="1:16" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -954,16 +965,16 @@
         <v>5</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>6</v>
@@ -984,9 +995,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>14</v>
@@ -995,7 +1006,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>17</v>
@@ -1004,25 +1015,25 @@
         <v>30</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>45</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="M12" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>29</v>
@@ -1036,6 +1047,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I8:P8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A8:G8"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A6:G6"/>
@@ -1045,14 +1063,8 @@
     <mergeCell ref="I5:P5"/>
     <mergeCell ref="I6:P6"/>
     <mergeCell ref="I7:P7"/>
-    <mergeCell ref="I8:P8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A8:G8"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/excelTemplate/estimate_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>NO</t>
   </si>
@@ -254,9 +254,6 @@
     <t>${data.SIZE_TXT}</t>
   </si>
   <si>
-    <t>TM각비</t>
-  </si>
-  <si>
     <t>연마비</t>
   </si>
   <si>
@@ -292,10 +289,6 @@
       </rPr>
       <t xml:space="preserve"> ${info.EMAIL_TITLE}</t>
     </r>
-  </si>
-  <si>
-    <t>${data.UNIT_MATERIAL_FINISH_TM_AMT}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>${data.UNIT_MATERIAL_FINISH_GRIND_AMT}</t>
@@ -371,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -394,11 +387,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -430,32 +436,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,11 +746,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -750,28 +757,27 @@
     <col min="3" max="3" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -787,154 +793,147 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -943,9 +942,8 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -973,29 +971,26 @@
       <c r="I11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>41</v>
+      <c r="J11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="O11" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1015,54 +1010,51 @@
         <v>30</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="J12" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="O12" s="8" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I8:P8"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:O8"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M9:O9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="I6:P6"/>
-    <mergeCell ref="I7:P7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excelTemplate/estimate_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_template.xlsx
@@ -230,12 +230,6 @@
     <t>${data.UNIT_FINAL_EST_AMT}</t>
   </si>
   <si>
-    <t>${data.UNIT_MATERIAL_AMT}</t>
-  </si>
-  <si>
-    <t>${data.UNIT_PROCESS_AMT}</t>
-  </si>
-  <si>
     <t>${data.UNIT_ETC_AMT}</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
 처리</t>
   </si>
   <si>
-    <t>${data.CALCUL_EST_UNIT_COST}</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -291,15 +282,27 @@
     </r>
   </si>
   <si>
-    <t>${data.UNIT_MATERIAL_FINISH_GRIND_AMT}</t>
+    <t>${data.UNIT_SUM_AUTO_AMT}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>${data.UNIT_MATERIAL_FINISH_HEAT_AMT}</t>
+    <t>${data.UNIT_MATERIAL_AUTO_AMT}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>${data.UNIT_SURFACE_AMT}</t>
+    <t>${data.UNIT_MATERIAL_FINISH_GRIND_AUTO_AMT}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_FINISH_HEAT_AUTO_AMT}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_SURFACE_AUTO_AMT}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_PROCESS_AUTO_AMT}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -436,6 +439,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -462,9 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -759,23 +764,23 @@
   <sheetData>
     <row r="1" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -795,145 +800,145 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="A6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="A8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="I9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -963,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>6</v>
@@ -986,13 +991,13 @@
       <c r="N11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>14</v>
@@ -1001,31 +1006,31 @@
         <v>16</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="L12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>29</v>

--- a/src/main/resources/excelTemplate/estimate_template.xlsx
+++ b/src/main/resources/excelTemplate/estimate_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\j-mes\workspace\src\main\resources\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project_2021\jmes1\src\main\resources\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>${data.UNIT_PROCESS_AUTO_AMT}</t>
+    <t>${data.UNIT_PROCESS_TOTAL_AUTO_AMT}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -442,6 +442,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -456,18 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,37 +752,37 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -799,146 +799,146 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -948,7 +948,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -995,7 +995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
         <v>31</v>
       </c>
@@ -1044,6 +1044,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A8:G8"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A6:G6"/>
@@ -1053,13 +1060,6 @@
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="I7:O7"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
